--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.805874666666667</v>
+        <v>4.014144333333333</v>
       </c>
       <c r="H2">
-        <v>5.417624</v>
+        <v>12.042433</v>
       </c>
       <c r="I2">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="J2">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N2">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q2">
-        <v>13.09039839952978</v>
+        <v>13.259790509537</v>
       </c>
       <c r="R2">
-        <v>117.813585595768</v>
+        <v>119.338114585833</v>
       </c>
       <c r="S2">
-        <v>0.001905976232942871</v>
+        <v>0.001669531818699075</v>
       </c>
       <c r="T2">
-        <v>0.001905976232942871</v>
+        <v>0.001669531818699075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.805874666666667</v>
+        <v>4.014144333333333</v>
       </c>
       <c r="H3">
-        <v>5.417624</v>
+        <v>12.042433</v>
       </c>
       <c r="I3">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="J3">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
         <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P3">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q3">
-        <v>68.31053327996977</v>
+        <v>151.8423981100029</v>
       </c>
       <c r="R3">
-        <v>614.7947995197279</v>
+        <v>1366.581582990026</v>
       </c>
       <c r="S3">
-        <v>0.009946087881935834</v>
+        <v>0.01911838010486592</v>
       </c>
       <c r="T3">
-        <v>0.009946087881935836</v>
+        <v>0.01911838010486592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.805874666666667</v>
+        <v>4.014144333333333</v>
       </c>
       <c r="H4">
-        <v>5.417624</v>
+        <v>12.042433</v>
       </c>
       <c r="I4">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="J4">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N4">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q4">
-        <v>15.48026765115111</v>
+        <v>36.72699610682266</v>
       </c>
       <c r="R4">
-        <v>139.32240886036</v>
+        <v>330.5429649614039</v>
       </c>
       <c r="S4">
-        <v>0.002253943793165854</v>
+        <v>0.004624272801404801</v>
       </c>
       <c r="T4">
-        <v>0.002253943793165854</v>
+        <v>0.004624272801404801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.805874666666667</v>
+        <v>4.014144333333333</v>
       </c>
       <c r="H5">
-        <v>5.417624</v>
+        <v>12.042433</v>
       </c>
       <c r="I5">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="J5">
-        <v>0.02415265239695089</v>
+        <v>0.0496505710047397</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N5">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q5">
-        <v>69.00116416203289</v>
+        <v>192.5066181783954</v>
       </c>
       <c r="R5">
-        <v>621.010477458296</v>
+        <v>1732.559563605559</v>
       </c>
       <c r="S5">
-        <v>0.01004664448890633</v>
+        <v>0.02423838627976991</v>
       </c>
       <c r="T5">
-        <v>0.01004664448890633</v>
+        <v>0.02423838627976991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>159.613593</v>
       </c>
       <c r="I6">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="J6">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N6">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q6">
-        <v>385.6682417145224</v>
+        <v>175.748771502777</v>
       </c>
       <c r="R6">
-        <v>3471.014175430701</v>
+        <v>1581.738943524993</v>
       </c>
       <c r="S6">
-        <v>0.05615371511803265</v>
+        <v>0.02212841642634706</v>
       </c>
       <c r="T6">
-        <v>0.05615371511803265</v>
+        <v>0.02212841642634706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>159.613593</v>
       </c>
       <c r="I7">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="J7">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
         <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P7">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q7">
         <v>2012.559316881727</v>
       </c>
       <c r="R7">
-        <v>18113.03385193554</v>
+        <v>18113.03385193555</v>
       </c>
       <c r="S7">
-        <v>0.2930308236838766</v>
+        <v>0.2534000679827212</v>
       </c>
       <c r="T7">
-        <v>0.2930308236838766</v>
+        <v>0.2534000679827212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>159.613593</v>
       </c>
       <c r="I8">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="J8">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N8">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q8">
-        <v>456.0783731764882</v>
+        <v>486.7893231132759</v>
       </c>
       <c r="R8">
-        <v>4104.705358588394</v>
+        <v>4381.103908019483</v>
       </c>
       <c r="S8">
-        <v>0.06640550677700238</v>
+        <v>0.06129133513505085</v>
       </c>
       <c r="T8">
-        <v>0.06640550677700238</v>
+        <v>0.06129133513505085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>159.613593</v>
       </c>
       <c r="I9">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="J9">
-        <v>0.711583459752355</v>
+        <v>0.6580818039484316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N9">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q9">
-        <v>2032.9066271644</v>
+        <v>2551.533648037137</v>
       </c>
       <c r="R9">
-        <v>18296.15964447959</v>
+        <v>22963.80283233423</v>
       </c>
       <c r="S9">
-        <v>0.2959934141734434</v>
+        <v>0.3212619844043125</v>
       </c>
       <c r="T9">
-        <v>0.2959934141734434</v>
+        <v>0.3212619844043125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.677085</v>
+        <v>20.763658</v>
       </c>
       <c r="H10">
-        <v>56.03125499999999</v>
+        <v>62.29097400000001</v>
       </c>
       <c r="I10">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="J10">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N10">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q10">
-        <v>135.386186043115</v>
+        <v>68.58790627068602</v>
       </c>
       <c r="R10">
-        <v>1218.475674388035</v>
+        <v>617.2911564361741</v>
       </c>
       <c r="S10">
-        <v>0.01971237581861742</v>
+        <v>0.008635859805967514</v>
       </c>
       <c r="T10">
-        <v>0.01971237581861742</v>
+        <v>0.008635859805967514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.677085</v>
+        <v>20.763658</v>
       </c>
       <c r="H11">
-        <v>56.03125499999999</v>
+        <v>62.29097400000001</v>
       </c>
       <c r="I11">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="J11">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
         <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P11">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q11">
-        <v>706.4951184127898</v>
+        <v>785.4235828231589</v>
       </c>
       <c r="R11">
-        <v>6358.456065715109</v>
+        <v>7068.812245408429</v>
       </c>
       <c r="S11">
-        <v>0.1028664570234399</v>
+        <v>0.098892185493938</v>
       </c>
       <c r="T11">
-        <v>0.1028664570234399</v>
+        <v>0.098892185493938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.677085</v>
+        <v>20.763658</v>
       </c>
       <c r="H12">
-        <v>56.03125499999999</v>
+        <v>62.29097400000001</v>
       </c>
       <c r="I12">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="J12">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N12">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q12">
-        <v>160.103178852925</v>
+        <v>189.974929450568</v>
       </c>
       <c r="R12">
-        <v>1440.928609676325</v>
+        <v>1709.774365055112</v>
       </c>
       <c r="S12">
-        <v>0.02331119683288157</v>
+        <v>0.02391962295669104</v>
       </c>
       <c r="T12">
-        <v>0.02331119683288157</v>
+        <v>0.02391962295669104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.677085</v>
+        <v>20.763658</v>
       </c>
       <c r="H13">
-        <v>56.03125499999999</v>
+        <v>62.29097400000001</v>
       </c>
       <c r="I13">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="J13">
-        <v>0.2497964837315982</v>
+        <v>0.256823718889812</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N13">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q13">
-        <v>713.6379018661549</v>
+        <v>995.7642901379114</v>
       </c>
       <c r="R13">
-        <v>6422.741116795395</v>
+        <v>8961.878611241202</v>
       </c>
       <c r="S13">
-        <v>0.1039064540566593</v>
+        <v>0.1253760506332154</v>
       </c>
       <c r="T13">
-        <v>0.1039064540566594</v>
+        <v>0.1253760506332154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.081716333333333</v>
+        <v>2.865565333333334</v>
       </c>
       <c r="H14">
-        <v>3.245149</v>
+        <v>8.596696000000001</v>
       </c>
       <c r="I14">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="J14">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N14">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q14">
-        <v>7.841129852465889</v>
+        <v>9.465727401944003</v>
       </c>
       <c r="R14">
-        <v>70.57016867219301</v>
+        <v>85.19154661749603</v>
       </c>
       <c r="S14">
-        <v>0.001141677027855444</v>
+        <v>0.001191823737585508</v>
       </c>
       <c r="T14">
-        <v>0.001141677027855444</v>
+        <v>0.001191823737585508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.081716333333333</v>
+        <v>2.865565333333334</v>
       </c>
       <c r="H15">
-        <v>3.245149</v>
+        <v>8.596696000000001</v>
       </c>
       <c r="I15">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="J15">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
         <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P15">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q15">
-        <v>40.91791138753088</v>
+        <v>108.3952832839236</v>
       </c>
       <c r="R15">
-        <v>368.261202487778</v>
+        <v>975.5575495553122</v>
       </c>
       <c r="S15">
-        <v>0.005957692365504912</v>
+        <v>0.01364798141488356</v>
       </c>
       <c r="T15">
-        <v>0.005957692365504914</v>
+        <v>0.01364798141488356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.081716333333333</v>
+        <v>2.865565333333334</v>
       </c>
       <c r="H16">
-        <v>3.245149</v>
+        <v>8.596696000000001</v>
       </c>
       <c r="I16">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="J16">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N16">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q16">
-        <v>9.272658103970555</v>
+        <v>26.21819199853867</v>
       </c>
       <c r="R16">
-        <v>83.45392293573498</v>
+        <v>235.963727986848</v>
       </c>
       <c r="S16">
-        <v>0.001350109096985759</v>
+        <v>0.00330111593684976</v>
       </c>
       <c r="T16">
-        <v>0.001350109096985759</v>
+        <v>0.00330111593684976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.081716333333333</v>
+        <v>2.865565333333334</v>
       </c>
       <c r="H17">
-        <v>3.245149</v>
+        <v>8.596696000000001</v>
       </c>
       <c r="I17">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="J17">
-        <v>0.01446740411909589</v>
+        <v>0.03544390615701676</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N17">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q17">
-        <v>41.33159829461344</v>
+        <v>137.4241296976898</v>
       </c>
       <c r="R17">
-        <v>371.984384651521</v>
+        <v>1236.817167279208</v>
       </c>
       <c r="S17">
-        <v>0.006017925628749776</v>
+        <v>0.01730298506769794</v>
       </c>
       <c r="T17">
-        <v>0.006017925628749776</v>
+        <v>0.01730298506769794</v>
       </c>
     </row>
   </sheetData>
